--- a/book_keep_AI/Fake Transactions/dummy_data_pt2.xlsx
+++ b/book_keep_AI/Fake Transactions/dummy_data_pt2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\bookkeeper_ai\Book_keeper_AI\book_keep_AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\bookkeeper_ai\Book_keeper_AI\book_keep_AI\Fake Transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9727647F-5907-499A-B6CC-9156BF951E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F85B530-B960-47D6-89C4-E3947D2EBA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41579D0C-12D3-4D6E-98FF-DAF5FCAB9A3C}"/>
+    <workbookView xWindow="3525" yWindow="3180" windowWidth="21570" windowHeight="11295" xr2:uid="{41579D0C-12D3-4D6E-98FF-DAF5FCAB9A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="generated_transactions (1)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>Memo</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>MICROSOFT STORE  AUTOPAY FX5J2</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -794,8 +797,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1171,817 +1175,1125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F05E888-CE85-4287-93D5-8A13D3201579}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>55884</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>57.76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>55885</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>235.83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>55886</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>492.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>55887</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>262.11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>55888</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>167.31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>55889</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>317.14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>55890</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>114.77</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>55891</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>140.88999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>55892</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>55893</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>357.51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>55894</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>135.54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>55895</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>218.41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>55896</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>87.38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>55897</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>273.31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>55898</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>222.17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>55899</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>302.83999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>55900</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>273.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>55901</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>235.09</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>55902</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>412.65</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>55903</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>144.74</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>55904</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>241.19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>55905</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>272.89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>55906</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>140.35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>55907</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>408.47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>55908</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>207.32</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>55909</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>91.52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>55910</v>
+      </c>
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>388.48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>55911</v>
+      </c>
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>251.87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>55912</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>132.03</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>55913</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>84.74</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>55914</v>
+      </c>
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>490.74</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>55915</v>
+      </c>
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>39.93</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>55916</v>
+      </c>
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>428.55</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>55917</v>
+      </c>
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>227.2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>55918</v>
+      </c>
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>42.03</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>55919</v>
+      </c>
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>487.08</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>55920</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>369.17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>55921</v>
+      </c>
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>20.89</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>55922</v>
+      </c>
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>293.83</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>55923</v>
+      </c>
+      <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>120.88</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>55924</v>
+      </c>
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>442.79</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>55925</v>
+      </c>
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>383.03</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>55926</v>
+      </c>
+      <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>258.11</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>55927</v>
+      </c>
+      <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>472.97</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>55928</v>
+      </c>
+      <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>185.47</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>55929</v>
+      </c>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>18.16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>55930</v>
+      </c>
+      <c r="B48" t="s">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>204.53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>55931</v>
+      </c>
+      <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>286.60000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>55932</v>
+      </c>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>149.88</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>55933</v>
+      </c>
+      <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>54.31</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>55934</v>
+      </c>
+      <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>201.37</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>55935</v>
+      </c>
+      <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>478.36</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>55936</v>
+      </c>
+      <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>55937</v>
+      </c>
+      <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>106.24</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55938</v>
+      </c>
+      <c r="B56" t="s">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>102.43</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55939</v>
+      </c>
+      <c r="B57" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>358.15</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>55940</v>
+      </c>
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>374.15</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>55941</v>
+      </c>
+      <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>239.17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>55942</v>
+      </c>
+      <c r="B60" t="s">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>361.96</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>55943</v>
+      </c>
+      <c r="B61" t="s">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>489.86</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>55944</v>
+      </c>
+      <c r="B62" t="s">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>420.92</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>55945</v>
+      </c>
+      <c r="B63" t="s">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>428.54</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>55946</v>
+      </c>
+      <c r="B64" t="s">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>214.71</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>55947</v>
+      </c>
+      <c r="B65" t="s">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>15.98</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>55948</v>
+      </c>
+      <c r="B66" t="s">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>471.15</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>55949</v>
+      </c>
+      <c r="B67" t="s">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>477</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>55950</v>
+      </c>
+      <c r="B68" t="s">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>29.13</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>55951</v>
+      </c>
+      <c r="B69" t="s">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>73.56</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>55952</v>
+      </c>
+      <c r="B70" t="s">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>473.81</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>55953</v>
+      </c>
+      <c r="B71" t="s">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>131.52000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>55954</v>
+      </c>
+      <c r="B72" t="s">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>99.64</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>55955</v>
+      </c>
+      <c r="B73" t="s">
         <v>43</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>236.43</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>55956</v>
+      </c>
+      <c r="B74" t="s">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>129.21</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>55957</v>
+      </c>
+      <c r="B75" t="s">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>291.39999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>55958</v>
+      </c>
+      <c r="B76" t="s">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>285.37</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>55959</v>
+      </c>
+      <c r="B77" t="s">
         <v>19</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>75.510000000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>55960</v>
+      </c>
+      <c r="B78" t="s">
         <v>75</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>498.58</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>55961</v>
+      </c>
+      <c r="B79" t="s">
         <v>76</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>149.02000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>55962</v>
+      </c>
+      <c r="B80" t="s">
         <v>77</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>133.47</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>55963</v>
+      </c>
+      <c r="B81" t="s">
         <v>78</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>387.28</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>55964</v>
+      </c>
+      <c r="B82" t="s">
         <v>79</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>354.9</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>55965</v>
+      </c>
+      <c r="B83" t="s">
         <v>80</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>188.42</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>55966</v>
+      </c>
+      <c r="B84" t="s">
         <v>81</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>458.02</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>55967</v>
+      </c>
+      <c r="B85" t="s">
         <v>82</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>318.68</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>55968</v>
+      </c>
+      <c r="B86" t="s">
         <v>83</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>492.07</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>55969</v>
+      </c>
+      <c r="B87" t="s">
         <v>84</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>165.43</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>55970</v>
+      </c>
+      <c r="B88" t="s">
         <v>85</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>400.02</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>55971</v>
+      </c>
+      <c r="B89" t="s">
         <v>86</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>139.06</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>55972</v>
+      </c>
+      <c r="B90" t="s">
         <v>87</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>224.04</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>55973</v>
+      </c>
+      <c r="B91" t="s">
         <v>88</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>167.25</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>55974</v>
+      </c>
+      <c r="B92" t="s">
         <v>89</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>77.209999999999994</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>55975</v>
+      </c>
+      <c r="B93" t="s">
         <v>90</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>194.33</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>55976</v>
+      </c>
+      <c r="B94" t="s">
         <v>91</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>442.69</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>55977</v>
+      </c>
+      <c r="B95" t="s">
         <v>92</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>378.85</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>55978</v>
+      </c>
+      <c r="B96" t="s">
         <v>93</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>124.67</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>55979</v>
+      </c>
+      <c r="B97" t="s">
         <v>94</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>189.28</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>55980</v>
+      </c>
+      <c r="B98" t="s">
         <v>95</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>478.17</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>55981</v>
+      </c>
+      <c r="B99" t="s">
         <v>14</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>361.31</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>55982</v>
+      </c>
+      <c r="B100" t="s">
         <v>94</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>229.19</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>55983</v>
+      </c>
+      <c r="B101" t="s">
         <v>96</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>390.04</v>
       </c>
     </row>
